--- a/cw_data/MouseList.xlsx
+++ b/cw_data/MouseList.xlsx
@@ -60,22 +60,22 @@
     <t>PH00001</t>
   </si>
   <si>
-    <t>File_01</t>
-  </si>
-  <si>
-    <t>File_02</t>
-  </si>
-  <si>
     <t>PH00002</t>
   </si>
   <si>
     <t>PH00003</t>
   </si>
   <si>
-    <t>File_03</t>
-  </si>
-  <si>
-    <t>File_04</t>
+    <t>cw_01</t>
+  </si>
+  <si>
+    <t>cw_02</t>
+  </si>
+  <si>
+    <t>cw_03</t>
+  </si>
+  <si>
+    <t>cw_04</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,7 +470,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -493,7 +493,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -507,7 +507,7 @@
         <v>10002</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
@@ -532,7 +532,7 @@
         <v>10003</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
